--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
@@ -4,26 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de Requisitos" sheetId="1" r:id="rId1"/>
     <sheet name="Hierarquia dos Requisitos" sheetId="3" r:id="rId2"/>
+    <sheet name="Gráficos" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Estórias</t>
   </si>
   <si>
     <t>Business Value</t>
-  </si>
-  <si>
-    <t>History Points</t>
   </si>
   <si>
     <t>Eu como gerente preciso de uma configuração de senha para maior segurança dos dados do hotel</t>
@@ -50,9 +48,6 @@
     <t>Eu como recepcionista gostaria de um cadastro de clientes, para agilizar os cadastros na recepção (Incluir, editar e pesquisar)</t>
   </si>
   <si>
-    <t>BV * inverso HP</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -77,19 +72,28 @@
     <t>Sprint4</t>
   </si>
   <si>
-    <t>Sprint5</t>
-  </si>
-  <si>
     <t>Ok</t>
-  </si>
-  <si>
-    <t>Ok*</t>
   </si>
   <si>
     <t>sprint</t>
   </si>
   <si>
     <t>BV restante</t>
+  </si>
+  <si>
+    <t>BV restante planejado</t>
+  </si>
+  <si>
+    <t>SP restante planejado</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>BV * inverso SP</t>
+  </si>
+  <si>
+    <t>SP restante</t>
   </si>
 </sst>
 </file>
@@ -149,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,6 +191,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -194,7 +213,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -227,7 +246,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Ênfase5" xfId="3" builtinId="46"/>
@@ -276,7 +296,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Lista de Requisitos'!$E$18</c:f>
+              <c:f>Gráficos!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -287,13 +307,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lista de Requisitos'!$D$19:$D$24</c:f>
+              <c:f>Gráficos!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -306,18 +323,15 @@
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lista de Requisitos'!$E$19:$E$24</c:f>
+              <c:f>Gráficos!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5100</c:v>
                 </c:pt>
@@ -325,26 +339,74 @@
                   <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3600</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85236352"/>
-        <c:axId val="85234816"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficos!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BV restante planejado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficos!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficos!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="44224896"/>
+        <c:axId val="45351680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85236352"/>
+        <c:axId val="44224896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -371,12 +433,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85234816"/>
+        <c:crossAx val="45351680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85234816"/>
+        <c:axId val="45351680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5100"/>
@@ -386,7 +448,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85236352"/>
+        <c:crossAx val="44224896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -399,7 +461,217 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Story</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> points</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> restante</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficos!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP restante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficos!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficos!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficos!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP restante planejado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficos!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficos!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="75242496"/>
+        <c:axId val="75485568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75242496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Sprints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75485568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75485568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75242496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5508,41 +5780,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>537884</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -5566,6 +5803,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>135591</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145116</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5860,9 +6162,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:AD295"/>
+  <dimension ref="A1:AC295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5873,9 +6175,9 @@
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5884,26 +6186,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -5923,14 +6223,13 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30" ht="45">
+    </row>
+    <row r="2" spans="1:29" ht="45">
       <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>500</v>
@@ -5943,12 +6242,12 @@
         <v>166.66666666666666</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -5968,14 +6267,13 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-    </row>
-    <row r="3" spans="1:30" ht="45.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:29" ht="45.75" customHeight="1">
       <c r="A3" s="3">
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>500</v>
@@ -5988,12 +6286,12 @@
         <v>166.66666666666666</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -6013,14 +6311,13 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-    </row>
-    <row r="4" spans="1:30" ht="37.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:29" ht="37.5" customHeight="1">
       <c r="A4" s="3">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>800</v>
@@ -6033,10 +6330,12 @@
         <v>160</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -6056,14 +6355,13 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-    </row>
-    <row r="5" spans="1:30" ht="30">
+    </row>
+    <row r="5" spans="1:29" ht="30">
       <c r="A5" s="3">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>200</v>
@@ -6079,7 +6377,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -6099,14 +6397,13 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-    </row>
-    <row r="6" spans="1:30" ht="45">
+    </row>
+    <row r="6" spans="1:29" ht="45">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
         <v>800</v>
@@ -6122,7 +6419,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -6142,14 +6439,13 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-    </row>
-    <row r="7" spans="1:30" ht="45">
+    </row>
+    <row r="7" spans="1:29" ht="45">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
         <v>500</v>
@@ -6162,12 +6458,12 @@
         <v>166.66666666666666</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -6187,14 +6483,13 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-    </row>
-    <row r="8" spans="1:30" ht="30">
+    </row>
+    <row r="8" spans="1:29" ht="30">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4">
         <v>200</v>
@@ -6210,7 +6505,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -6230,14 +6525,13 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-    </row>
-    <row r="9" spans="1:30" ht="30">
+    </row>
+    <row r="9" spans="1:29" ht="30">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
         <v>300</v>
@@ -6250,10 +6544,12 @@
         <v>100</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -6273,14 +6569,13 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-    </row>
-    <row r="10" spans="1:30" ht="45">
+    </row>
+    <row r="10" spans="1:29" ht="45">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4">
         <v>800</v>
@@ -6296,7 +6591,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -6316,14 +6611,13 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-    </row>
-    <row r="11" spans="1:30" ht="30">
+    </row>
+    <row r="11" spans="1:29" ht="30">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
         <v>500</v>
@@ -6339,7 +6633,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -6359,12 +6653,11 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-    </row>
-    <row r="12" spans="1:30">
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f>SUM(C2:C11)</f>
@@ -6399,9 +6692,8 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-    </row>
-    <row r="13" spans="1:30">
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6431,9 +6723,8 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-    </row>
-    <row r="14" spans="1:30">
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6463,9 +6754,8 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-    </row>
-    <row r="15" spans="1:30">
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6495,9 +6785,8 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-    </row>
-    <row r="16" spans="1:30">
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6527,9 +6816,8 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-    </row>
-    <row r="17" spans="1:30">
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6559,18 +6847,13 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-    </row>
-    <row r="18" spans="1:30">
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -6595,18 +6878,13 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-    </row>
-    <row r="19" spans="1:30">
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>5100</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -6631,18 +6909,13 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-    </row>
-    <row r="20" spans="1:30">
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12">
-        <v>3600</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -6667,18 +6940,13 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="1:30">
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="12">
-        <v>2</v>
-      </c>
-      <c r="E21" s="12">
-        <v>3600</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -6703,18 +6971,13 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="1:30">
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="12">
-        <v>3</v>
-      </c>
-      <c r="E22" s="12">
-        <v>3600</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -6739,18 +7002,13 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="1:30">
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="12">
-        <v>4</v>
-      </c>
-      <c r="E23" s="12">
-        <v>3600</v>
-      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -6775,18 +7033,13 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="1:30">
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="12">
-        <v>5</v>
-      </c>
-      <c r="E24" s="12">
-        <v>3600</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -6811,9 +7064,8 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-    </row>
-    <row r="25" spans="1:30">
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6843,9 +7095,8 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="1:30">
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -6875,9 +7126,8 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="1:30">
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6907,9 +7157,8 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-    </row>
-    <row r="28" spans="1:30">
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6939,9 +7188,8 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-    </row>
-    <row r="29" spans="1:30">
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6971,9 +7219,8 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-    </row>
-    <row r="30" spans="1:30">
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7003,9 +7250,8 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-    </row>
-    <row r="31" spans="1:30">
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -7035,9 +7281,8 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-    </row>
-    <row r="32" spans="1:30">
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7067,9 +7312,8 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-    </row>
-    <row r="33" spans="1:30">
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -7099,9 +7343,8 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-    </row>
-    <row r="34" spans="1:30">
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7131,9 +7374,8 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-    </row>
-    <row r="35" spans="1:30">
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -7163,9 +7405,8 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-    </row>
-    <row r="36" spans="1:30">
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7195,9 +7436,8 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-    </row>
-    <row r="37" spans="1:30">
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7227,9 +7467,8 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-    </row>
-    <row r="38" spans="1:30">
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7259,9 +7498,8 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-    </row>
-    <row r="39" spans="1:30">
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7291,9 +7529,8 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-    </row>
-    <row r="40" spans="1:30">
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7323,9 +7560,8 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-    </row>
-    <row r="41" spans="1:30">
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7355,9 +7591,8 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-    </row>
-    <row r="42" spans="1:30">
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7387,9 +7622,8 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-    </row>
-    <row r="43" spans="1:30">
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -7419,9 +7653,8 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-    </row>
-    <row r="44" spans="1:30">
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -7451,9 +7684,8 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-    </row>
-    <row r="45" spans="1:30">
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -7483,9 +7715,8 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-    </row>
-    <row r="46" spans="1:30">
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -7515,9 +7746,8 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-    </row>
-    <row r="47" spans="1:30">
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7547,9 +7777,8 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-    </row>
-    <row r="48" spans="1:30">
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -7579,9 +7808,8 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-    </row>
-    <row r="49" spans="1:30">
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -7611,9 +7839,8 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-    </row>
-    <row r="50" spans="1:30">
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -7643,9 +7870,8 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-    </row>
-    <row r="51" spans="1:30">
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -7675,9 +7901,8 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-    </row>
-    <row r="52" spans="1:30">
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -7707,9 +7932,8 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-    </row>
-    <row r="53" spans="1:30">
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -7739,9 +7963,8 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-    </row>
-    <row r="54" spans="1:30">
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -7771,9 +7994,8 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-    </row>
-    <row r="55" spans="1:30">
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -7803,9 +8025,8 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-    </row>
-    <row r="56" spans="1:30">
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -7835,9 +8056,8 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-    </row>
-    <row r="57" spans="1:30">
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -7867,9 +8087,8 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-    </row>
-    <row r="58" spans="1:30">
+    </row>
+    <row r="58" spans="1:29">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -7899,9 +8118,8 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-    </row>
-    <row r="59" spans="1:30">
+    </row>
+    <row r="59" spans="1:29">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -7931,9 +8149,8 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-    </row>
-    <row r="60" spans="1:30">
+    </row>
+    <row r="60" spans="1:29">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -7963,9 +8180,8 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-    </row>
-    <row r="61" spans="1:30">
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -7995,9 +8211,8 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-    </row>
-    <row r="62" spans="1:30">
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -8027,9 +8242,8 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-    </row>
-    <row r="63" spans="1:30">
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -8059,9 +8273,8 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-    </row>
-    <row r="64" spans="1:30">
+    </row>
+    <row r="64" spans="1:29">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -8091,9 +8304,8 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-    </row>
-    <row r="65" spans="1:30">
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -8123,9 +8335,8 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-    </row>
-    <row r="66" spans="1:30">
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -8155,9 +8366,8 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-    </row>
-    <row r="67" spans="1:30">
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -8187,9 +8397,8 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-    </row>
-    <row r="68" spans="1:30">
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -8219,9 +8428,8 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-    </row>
-    <row r="69" spans="1:30">
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -8251,9 +8459,8 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-    </row>
-    <row r="70" spans="1:30">
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -8283,9 +8490,8 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-    </row>
-    <row r="71" spans="1:30">
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -8315,9 +8521,8 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-    </row>
-    <row r="72" spans="1:30">
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -8347,9 +8552,8 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-    </row>
-    <row r="73" spans="1:30">
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -8379,9 +8583,8 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-    </row>
-    <row r="74" spans="1:30">
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -8411,9 +8614,8 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-    </row>
-    <row r="75" spans="1:30">
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -8443,9 +8645,8 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-    </row>
-    <row r="76" spans="1:30">
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -8475,9 +8676,8 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-    </row>
-    <row r="77" spans="1:30">
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -8507,9 +8707,8 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-    </row>
-    <row r="78" spans="1:30">
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -8539,9 +8738,8 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-    </row>
-    <row r="79" spans="1:30">
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -8571,9 +8769,8 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-    </row>
-    <row r="80" spans="1:30">
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -8603,9 +8800,8 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-    </row>
-    <row r="81" spans="1:30">
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -8635,9 +8831,8 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-    </row>
-    <row r="82" spans="1:30">
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -8667,9 +8862,8 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-    </row>
-    <row r="83" spans="1:30">
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -8699,9 +8893,8 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-    </row>
-    <row r="84" spans="1:30">
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -8731,9 +8924,8 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-    </row>
-    <row r="85" spans="1:30">
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -8763,9 +8955,8 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-    </row>
-    <row r="86" spans="1:30">
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -8795,9 +8986,8 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-    </row>
-    <row r="87" spans="1:30">
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -8827,9 +9017,8 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-    </row>
-    <row r="88" spans="1:30">
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -8859,9 +9048,8 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-    </row>
-    <row r="89" spans="1:30">
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -8891,9 +9079,8 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-    </row>
-    <row r="90" spans="1:30">
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -8923,9 +9110,8 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-    </row>
-    <row r="91" spans="1:30">
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -8955,9 +9141,8 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-    </row>
-    <row r="92" spans="1:30">
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -8987,9 +9172,8 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-    </row>
-    <row r="93" spans="1:30">
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -9019,9 +9203,8 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-    </row>
-    <row r="94" spans="1:30">
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -9051,9 +9234,8 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-    </row>
-    <row r="95" spans="1:30">
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -9083,9 +9265,8 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
-    </row>
-    <row r="96" spans="1:30">
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -9115,9 +9296,8 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
-    </row>
-    <row r="97" spans="1:30">
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -9147,9 +9327,8 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-    </row>
-    <row r="98" spans="1:30">
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -9179,9 +9358,8 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
-      <c r="AD98" s="1"/>
-    </row>
-    <row r="99" spans="1:30">
+    </row>
+    <row r="99" spans="1:29">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -9211,9 +9389,8 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
-    </row>
-    <row r="100" spans="1:30">
+    </row>
+    <row r="100" spans="1:29">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -9243,9 +9420,8 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-    </row>
-    <row r="101" spans="1:30">
+    </row>
+    <row r="101" spans="1:29">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -9275,9 +9451,8 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
-      <c r="AD101" s="1"/>
-    </row>
-    <row r="102" spans="1:30">
+    </row>
+    <row r="102" spans="1:29">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -9307,9 +9482,8 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
-    </row>
-    <row r="103" spans="1:30">
+    </row>
+    <row r="103" spans="1:29">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -9339,9 +9513,8 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
-      <c r="AD103" s="1"/>
-    </row>
-    <row r="104" spans="1:30">
+    </row>
+    <row r="104" spans="1:29">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9371,9 +9544,8 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
-      <c r="AD104" s="1"/>
-    </row>
-    <row r="105" spans="1:30">
+    </row>
+    <row r="105" spans="1:29">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -9403,9 +9575,8 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
-      <c r="AD105" s="1"/>
-    </row>
-    <row r="106" spans="1:30">
+    </row>
+    <row r="106" spans="1:29">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -9435,9 +9606,8 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
-      <c r="AD106" s="1"/>
-    </row>
-    <row r="107" spans="1:30">
+    </row>
+    <row r="107" spans="1:29">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -9467,9 +9637,8 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
-      <c r="AD107" s="1"/>
-    </row>
-    <row r="108" spans="1:30">
+    </row>
+    <row r="108" spans="1:29">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -9499,9 +9668,8 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
-      <c r="AD108" s="1"/>
-    </row>
-    <row r="109" spans="1:30">
+    </row>
+    <row r="109" spans="1:29">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -9531,9 +9699,8 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
-      <c r="AD109" s="1"/>
-    </row>
-    <row r="110" spans="1:30">
+    </row>
+    <row r="110" spans="1:29">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -9563,9 +9730,8 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
-      <c r="AD110" s="1"/>
-    </row>
-    <row r="111" spans="1:30">
+    </row>
+    <row r="111" spans="1:29">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -9595,9 +9761,8 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
-      <c r="AD111" s="1"/>
-    </row>
-    <row r="112" spans="1:30">
+    </row>
+    <row r="112" spans="1:29">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -9627,9 +9792,8 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
-      <c r="AD112" s="1"/>
-    </row>
-    <row r="113" spans="1:30">
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -9659,9 +9823,8 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
-      <c r="AD113" s="1"/>
-    </row>
-    <row r="114" spans="1:30">
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -9691,9 +9854,8 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
-      <c r="AD114" s="1"/>
-    </row>
-    <row r="115" spans="1:30">
+    </row>
+    <row r="115" spans="1:29">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -9723,9 +9885,8 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
-      <c r="AD115" s="1"/>
-    </row>
-    <row r="116" spans="1:30">
+    </row>
+    <row r="116" spans="1:29">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -9755,9 +9916,8 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
-      <c r="AD116" s="1"/>
-    </row>
-    <row r="117" spans="1:30">
+    </row>
+    <row r="117" spans="1:29">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -9787,9 +9947,8 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
-      <c r="AD117" s="1"/>
-    </row>
-    <row r="118" spans="1:30">
+    </row>
+    <row r="118" spans="1:29">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -9819,9 +9978,8 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
-      <c r="AD118" s="1"/>
-    </row>
-    <row r="119" spans="1:30">
+    </row>
+    <row r="119" spans="1:29">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -9851,9 +10009,8 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
-      <c r="AD119" s="1"/>
-    </row>
-    <row r="120" spans="1:30">
+    </row>
+    <row r="120" spans="1:29">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -9883,9 +10040,8 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
-      <c r="AD120" s="1"/>
-    </row>
-    <row r="121" spans="1:30">
+    </row>
+    <row r="121" spans="1:29">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -9915,9 +10071,8 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
-      <c r="AD121" s="1"/>
-    </row>
-    <row r="122" spans="1:30">
+    </row>
+    <row r="122" spans="1:29">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -9947,9 +10102,8 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
-      <c r="AD122" s="1"/>
-    </row>
-    <row r="123" spans="1:30">
+    </row>
+    <row r="123" spans="1:29">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -9979,9 +10133,8 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
-      <c r="AD123" s="1"/>
-    </row>
-    <row r="124" spans="1:30">
+    </row>
+    <row r="124" spans="1:29">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -10011,9 +10164,8 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
-      <c r="AD124" s="1"/>
-    </row>
-    <row r="125" spans="1:30">
+    </row>
+    <row r="125" spans="1:29">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -10043,9 +10195,8 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
-      <c r="AD125" s="1"/>
-    </row>
-    <row r="126" spans="1:30">
+    </row>
+    <row r="126" spans="1:29">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -10075,9 +10226,8 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
-      <c r="AD126" s="1"/>
-    </row>
-    <row r="127" spans="1:30">
+    </row>
+    <row r="127" spans="1:29">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -10107,9 +10257,8 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
-      <c r="AD127" s="1"/>
-    </row>
-    <row r="128" spans="1:30">
+    </row>
+    <row r="128" spans="1:29">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -10139,9 +10288,8 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
-      <c r="AD128" s="1"/>
-    </row>
-    <row r="129" spans="1:30">
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -10171,9 +10319,8 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
-      <c r="AD129" s="1"/>
-    </row>
-    <row r="130" spans="1:30">
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -10203,9 +10350,8 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
-      <c r="AD130" s="1"/>
-    </row>
-    <row r="131" spans="1:30">
+    </row>
+    <row r="131" spans="1:29">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -10235,9 +10381,8 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
-      <c r="AD131" s="1"/>
-    </row>
-    <row r="132" spans="1:30">
+    </row>
+    <row r="132" spans="1:29">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -10267,9 +10412,8 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
-      <c r="AD132" s="1"/>
-    </row>
-    <row r="133" spans="1:30">
+    </row>
+    <row r="133" spans="1:29">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -10299,9 +10443,8 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
-      <c r="AD133" s="1"/>
-    </row>
-    <row r="134" spans="1:30">
+    </row>
+    <row r="134" spans="1:29">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -10331,9 +10474,8 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
-      <c r="AD134" s="1"/>
-    </row>
-    <row r="135" spans="1:30">
+    </row>
+    <row r="135" spans="1:29">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -10363,9 +10505,8 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
       <c r="AC135" s="1"/>
-      <c r="AD135" s="1"/>
-    </row>
-    <row r="136" spans="1:30">
+    </row>
+    <row r="136" spans="1:29">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -10395,9 +10536,8 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
       <c r="AC136" s="1"/>
-      <c r="AD136" s="1"/>
-    </row>
-    <row r="137" spans="1:30">
+    </row>
+    <row r="137" spans="1:29">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -10427,9 +10567,8 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
-      <c r="AD137" s="1"/>
-    </row>
-    <row r="138" spans="1:30">
+    </row>
+    <row r="138" spans="1:29">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -10459,9 +10598,8 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
-      <c r="AD138" s="1"/>
-    </row>
-    <row r="139" spans="1:30">
+    </row>
+    <row r="139" spans="1:29">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -10491,9 +10629,8 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
-      <c r="AD139" s="1"/>
-    </row>
-    <row r="140" spans="1:30">
+    </row>
+    <row r="140" spans="1:29">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -10523,9 +10660,8 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
-      <c r="AD140" s="1"/>
-    </row>
-    <row r="141" spans="1:30">
+    </row>
+    <row r="141" spans="1:29">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -10555,9 +10691,8 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
-      <c r="AD141" s="1"/>
-    </row>
-    <row r="142" spans="1:30">
+    </row>
+    <row r="142" spans="1:29">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -10587,9 +10722,8 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
-      <c r="AD142" s="1"/>
-    </row>
-    <row r="143" spans="1:30">
+    </row>
+    <row r="143" spans="1:29">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -10619,9 +10753,8 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
-      <c r="AD143" s="1"/>
-    </row>
-    <row r="144" spans="1:30">
+    </row>
+    <row r="144" spans="1:29">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -10651,9 +10784,8 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
       <c r="AC144" s="1"/>
-      <c r="AD144" s="1"/>
-    </row>
-    <row r="145" spans="1:30">
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -10683,9 +10815,8 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
       <c r="AC145" s="1"/>
-      <c r="AD145" s="1"/>
-    </row>
-    <row r="146" spans="1:30">
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -10715,9 +10846,8 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
-      <c r="AD146" s="1"/>
-    </row>
-    <row r="147" spans="1:30">
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -10747,9 +10877,8 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
       <c r="AC147" s="1"/>
-      <c r="AD147" s="1"/>
-    </row>
-    <row r="148" spans="1:30">
+    </row>
+    <row r="148" spans="1:29">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -10779,9 +10908,8 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
-      <c r="AD148" s="1"/>
-    </row>
-    <row r="149" spans="1:30">
+    </row>
+    <row r="149" spans="1:29">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -10811,9 +10939,8 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
-      <c r="AD149" s="1"/>
-    </row>
-    <row r="150" spans="1:30">
+    </row>
+    <row r="150" spans="1:29">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -10843,9 +10970,8 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
-      <c r="AD150" s="1"/>
-    </row>
-    <row r="151" spans="1:30">
+    </row>
+    <row r="151" spans="1:29">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -10875,9 +11001,8 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
-      <c r="AD151" s="1"/>
-    </row>
-    <row r="152" spans="1:30">
+    </row>
+    <row r="152" spans="1:29">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -10907,9 +11032,8 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
-      <c r="AD152" s="1"/>
-    </row>
-    <row r="153" spans="1:30">
+    </row>
+    <row r="153" spans="1:29">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -10939,9 +11063,8 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
-      <c r="AD153" s="1"/>
-    </row>
-    <row r="154" spans="1:30">
+    </row>
+    <row r="154" spans="1:29">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -10971,9 +11094,8 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
-      <c r="AD154" s="1"/>
-    </row>
-    <row r="155" spans="1:30">
+    </row>
+    <row r="155" spans="1:29">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -11003,9 +11125,8 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
-      <c r="AD155" s="1"/>
-    </row>
-    <row r="156" spans="1:30">
+    </row>
+    <row r="156" spans="1:29">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -11035,9 +11156,8 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
-      <c r="AD156" s="1"/>
-    </row>
-    <row r="157" spans="1:30">
+    </row>
+    <row r="157" spans="1:29">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -11067,9 +11187,8 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
-      <c r="AD157" s="1"/>
-    </row>
-    <row r="158" spans="1:30">
+    </row>
+    <row r="158" spans="1:29">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -11099,9 +11218,8 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
-      <c r="AD158" s="1"/>
-    </row>
-    <row r="159" spans="1:30">
+    </row>
+    <row r="159" spans="1:29">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -11131,9 +11249,8 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
-      <c r="AD159" s="1"/>
-    </row>
-    <row r="160" spans="1:30">
+    </row>
+    <row r="160" spans="1:29">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -11163,9 +11280,8 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
-      <c r="AD160" s="1"/>
-    </row>
-    <row r="161" spans="1:30">
+    </row>
+    <row r="161" spans="1:29">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -11195,9 +11311,8 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
-      <c r="AD161" s="1"/>
-    </row>
-    <row r="162" spans="1:30">
+    </row>
+    <row r="162" spans="1:29">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -11227,9 +11342,8 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
-      <c r="AD162" s="1"/>
-    </row>
-    <row r="163" spans="1:30">
+    </row>
+    <row r="163" spans="1:29">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -11259,9 +11373,8 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
-      <c r="AD163" s="1"/>
-    </row>
-    <row r="164" spans="1:30">
+    </row>
+    <row r="164" spans="1:29">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -11291,9 +11404,8 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
-      <c r="AD164" s="1"/>
-    </row>
-    <row r="165" spans="1:30">
+    </row>
+    <row r="165" spans="1:29">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -11323,9 +11435,8 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
       <c r="AC165" s="1"/>
-      <c r="AD165" s="1"/>
-    </row>
-    <row r="166" spans="1:30">
+    </row>
+    <row r="166" spans="1:29">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -11355,9 +11466,8 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
       <c r="AC166" s="1"/>
-      <c r="AD166" s="1"/>
-    </row>
-    <row r="167" spans="1:30">
+    </row>
+    <row r="167" spans="1:29">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -11387,9 +11497,8 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
       <c r="AC167" s="1"/>
-      <c r="AD167" s="1"/>
-    </row>
-    <row r="168" spans="1:30">
+    </row>
+    <row r="168" spans="1:29">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -11419,9 +11528,8 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
       <c r="AC168" s="1"/>
-      <c r="AD168" s="1"/>
-    </row>
-    <row r="169" spans="1:30">
+    </row>
+    <row r="169" spans="1:29">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -11451,9 +11559,8 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
       <c r="AC169" s="1"/>
-      <c r="AD169" s="1"/>
-    </row>
-    <row r="170" spans="1:30">
+    </row>
+    <row r="170" spans="1:29">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -11483,9 +11590,8 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
       <c r="AC170" s="1"/>
-      <c r="AD170" s="1"/>
-    </row>
-    <row r="171" spans="1:30">
+    </row>
+    <row r="171" spans="1:29">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -11515,9 +11621,8 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
       <c r="AC171" s="1"/>
-      <c r="AD171" s="1"/>
-    </row>
-    <row r="172" spans="1:30">
+    </row>
+    <row r="172" spans="1:29">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -11547,9 +11652,8 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
       <c r="AC172" s="1"/>
-      <c r="AD172" s="1"/>
-    </row>
-    <row r="173" spans="1:30">
+    </row>
+    <row r="173" spans="1:29">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -11579,9 +11683,8 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
       <c r="AC173" s="1"/>
-      <c r="AD173" s="1"/>
-    </row>
-    <row r="174" spans="1:30">
+    </row>
+    <row r="174" spans="1:29">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -11611,9 +11714,8 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
       <c r="AC174" s="1"/>
-      <c r="AD174" s="1"/>
-    </row>
-    <row r="175" spans="1:30">
+    </row>
+    <row r="175" spans="1:29">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -11643,9 +11745,8 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
-      <c r="AD175" s="1"/>
-    </row>
-    <row r="176" spans="1:30">
+    </row>
+    <row r="176" spans="1:29">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -11675,9 +11776,8 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
       <c r="AC176" s="1"/>
-      <c r="AD176" s="1"/>
-    </row>
-    <row r="177" spans="1:30">
+    </row>
+    <row r="177" spans="1:29">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -11707,9 +11807,8 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
-      <c r="AD177" s="1"/>
-    </row>
-    <row r="178" spans="1:30">
+    </row>
+    <row r="178" spans="1:29">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -11739,9 +11838,8 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
       <c r="AC178" s="1"/>
-      <c r="AD178" s="1"/>
-    </row>
-    <row r="179" spans="1:30">
+    </row>
+    <row r="179" spans="1:29">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -11771,9 +11869,8 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
       <c r="AC179" s="1"/>
-      <c r="AD179" s="1"/>
-    </row>
-    <row r="180" spans="1:30">
+    </row>
+    <row r="180" spans="1:29">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -11803,9 +11900,8 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
       <c r="AC180" s="1"/>
-      <c r="AD180" s="1"/>
-    </row>
-    <row r="181" spans="1:30">
+    </row>
+    <row r="181" spans="1:29">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -11835,9 +11931,8 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
       <c r="AC181" s="1"/>
-      <c r="AD181" s="1"/>
-    </row>
-    <row r="182" spans="1:30">
+    </row>
+    <row r="182" spans="1:29">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -11867,9 +11962,8 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
       <c r="AC182" s="1"/>
-      <c r="AD182" s="1"/>
-    </row>
-    <row r="183" spans="1:30">
+    </row>
+    <row r="183" spans="1:29">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -11899,9 +11993,8 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
       <c r="AC183" s="1"/>
-      <c r="AD183" s="1"/>
-    </row>
-    <row r="184" spans="1:30">
+    </row>
+    <row r="184" spans="1:29">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -11931,9 +12024,8 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
       <c r="AC184" s="1"/>
-      <c r="AD184" s="1"/>
-    </row>
-    <row r="185" spans="1:30">
+    </row>
+    <row r="185" spans="1:29">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -11963,9 +12055,8 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
       <c r="AC185" s="1"/>
-      <c r="AD185" s="1"/>
-    </row>
-    <row r="186" spans="1:30">
+    </row>
+    <row r="186" spans="1:29">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -11995,9 +12086,8 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
-      <c r="AD186" s="1"/>
-    </row>
-    <row r="187" spans="1:30">
+    </row>
+    <row r="187" spans="1:29">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -12027,9 +12117,8 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
       <c r="AC187" s="1"/>
-      <c r="AD187" s="1"/>
-    </row>
-    <row r="188" spans="1:30">
+    </row>
+    <row r="188" spans="1:29">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -12059,9 +12148,8 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
-      <c r="AD188" s="1"/>
-    </row>
-    <row r="189" spans="1:30">
+    </row>
+    <row r="189" spans="1:29">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -12091,9 +12179,8 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
-      <c r="AD189" s="1"/>
-    </row>
-    <row r="190" spans="1:30">
+    </row>
+    <row r="190" spans="1:29">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -12123,9 +12210,8 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
-      <c r="AD190" s="1"/>
-    </row>
-    <row r="191" spans="1:30">
+    </row>
+    <row r="191" spans="1:29">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -12155,9 +12241,8 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
       <c r="AC191" s="1"/>
-      <c r="AD191" s="1"/>
-    </row>
-    <row r="192" spans="1:30">
+    </row>
+    <row r="192" spans="1:29">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -12187,9 +12272,8 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
       <c r="AC192" s="1"/>
-      <c r="AD192" s="1"/>
-    </row>
-    <row r="193" spans="1:30">
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -12219,9 +12303,8 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
       <c r="AC193" s="1"/>
-      <c r="AD193" s="1"/>
-    </row>
-    <row r="194" spans="1:30">
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -12251,9 +12334,8 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
       <c r="AC194" s="1"/>
-      <c r="AD194" s="1"/>
-    </row>
-    <row r="195" spans="1:30">
+    </row>
+    <row r="195" spans="1:29">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -12283,9 +12365,8 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
       <c r="AC195" s="1"/>
-      <c r="AD195" s="1"/>
-    </row>
-    <row r="196" spans="1:30">
+    </row>
+    <row r="196" spans="1:29">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -12315,9 +12396,8 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
       <c r="AC196" s="1"/>
-      <c r="AD196" s="1"/>
-    </row>
-    <row r="197" spans="1:30">
+    </row>
+    <row r="197" spans="1:29">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -12347,9 +12427,8 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
-      <c r="AD197" s="1"/>
-    </row>
-    <row r="198" spans="1:30">
+    </row>
+    <row r="198" spans="1:29">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -12379,9 +12458,8 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
       <c r="AC198" s="1"/>
-      <c r="AD198" s="1"/>
-    </row>
-    <row r="199" spans="1:30">
+    </row>
+    <row r="199" spans="1:29">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -12411,9 +12489,8 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
       <c r="AC199" s="1"/>
-      <c r="AD199" s="1"/>
-    </row>
-    <row r="200" spans="1:30">
+    </row>
+    <row r="200" spans="1:29">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -12443,9 +12520,8 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
       <c r="AC200" s="1"/>
-      <c r="AD200" s="1"/>
-    </row>
-    <row r="201" spans="1:30">
+    </row>
+    <row r="201" spans="1:29">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -12475,9 +12551,8 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
       <c r="AC201" s="1"/>
-      <c r="AD201" s="1"/>
-    </row>
-    <row r="202" spans="1:30">
+    </row>
+    <row r="202" spans="1:29">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -12507,9 +12582,8 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
-      <c r="AD202" s="1"/>
-    </row>
-    <row r="203" spans="1:30">
+    </row>
+    <row r="203" spans="1:29">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -12539,9 +12613,8 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
-      <c r="AD203" s="1"/>
-    </row>
-    <row r="204" spans="1:30">
+    </row>
+    <row r="204" spans="1:29">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -12571,9 +12644,8 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
-      <c r="AD204" s="1"/>
-    </row>
-    <row r="205" spans="1:30">
+    </row>
+    <row r="205" spans="1:29">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -12603,9 +12675,8 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
-      <c r="AD205" s="1"/>
-    </row>
-    <row r="206" spans="1:30">
+    </row>
+    <row r="206" spans="1:29">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -12635,9 +12706,8 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
-      <c r="AD206" s="1"/>
-    </row>
-    <row r="207" spans="1:30">
+    </row>
+    <row r="207" spans="1:29">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -12667,9 +12737,8 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
-      <c r="AD207" s="1"/>
-    </row>
-    <row r="208" spans="1:30">
+    </row>
+    <row r="208" spans="1:29">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -12699,9 +12768,8 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
       <c r="AC208" s="1"/>
-      <c r="AD208" s="1"/>
-    </row>
-    <row r="209" spans="1:30">
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -12731,9 +12799,8 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
-      <c r="AD209" s="1"/>
-    </row>
-    <row r="210" spans="1:30">
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -12763,9 +12830,8 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
       <c r="AC210" s="1"/>
-      <c r="AD210" s="1"/>
-    </row>
-    <row r="211" spans="1:30">
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -12795,9 +12861,8 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
       <c r="AC211" s="1"/>
-      <c r="AD211" s="1"/>
-    </row>
-    <row r="212" spans="1:30">
+    </row>
+    <row r="212" spans="1:29">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -12827,9 +12892,8 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
       <c r="AC212" s="1"/>
-      <c r="AD212" s="1"/>
-    </row>
-    <row r="213" spans="1:30">
+    </row>
+    <row r="213" spans="1:29">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -12859,9 +12923,8 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
       <c r="AC213" s="1"/>
-      <c r="AD213" s="1"/>
-    </row>
-    <row r="214" spans="1:30">
+    </row>
+    <row r="214" spans="1:29">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -12891,9 +12954,8 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
       <c r="AC214" s="1"/>
-      <c r="AD214" s="1"/>
-    </row>
-    <row r="215" spans="1:30">
+    </row>
+    <row r="215" spans="1:29">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -12923,9 +12985,8 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
       <c r="AC215" s="1"/>
-      <c r="AD215" s="1"/>
-    </row>
-    <row r="216" spans="1:30">
+    </row>
+    <row r="216" spans="1:29">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -12955,9 +13016,8 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
       <c r="AC216" s="1"/>
-      <c r="AD216" s="1"/>
-    </row>
-    <row r="217" spans="1:30">
+    </row>
+    <row r="217" spans="1:29">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -12987,9 +13047,8 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
       <c r="AC217" s="1"/>
-      <c r="AD217" s="1"/>
-    </row>
-    <row r="218" spans="1:30">
+    </row>
+    <row r="218" spans="1:29">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -13019,9 +13078,8 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
       <c r="AC218" s="1"/>
-      <c r="AD218" s="1"/>
-    </row>
-    <row r="219" spans="1:30">
+    </row>
+    <row r="219" spans="1:29">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -13051,9 +13109,8 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
       <c r="AC219" s="1"/>
-      <c r="AD219" s="1"/>
-    </row>
-    <row r="220" spans="1:30">
+    </row>
+    <row r="220" spans="1:29">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -13083,9 +13140,8 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
-      <c r="AD220" s="1"/>
-    </row>
-    <row r="221" spans="1:30">
+    </row>
+    <row r="221" spans="1:29">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -13115,9 +13171,8 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
-      <c r="AD221" s="1"/>
-    </row>
-    <row r="222" spans="1:30">
+    </row>
+    <row r="222" spans="1:29">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -13147,9 +13202,8 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
-      <c r="AD222" s="1"/>
-    </row>
-    <row r="223" spans="1:30">
+    </row>
+    <row r="223" spans="1:29">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -13179,9 +13233,8 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
       <c r="AC223" s="1"/>
-      <c r="AD223" s="1"/>
-    </row>
-    <row r="224" spans="1:30">
+    </row>
+    <row r="224" spans="1:29">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -13211,9 +13264,8 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
       <c r="AC224" s="1"/>
-      <c r="AD224" s="1"/>
-    </row>
-    <row r="225" spans="1:30">
+    </row>
+    <row r="225" spans="1:29">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -13243,9 +13295,8 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
       <c r="AC225" s="1"/>
-      <c r="AD225" s="1"/>
-    </row>
-    <row r="226" spans="1:30">
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -13275,9 +13326,8 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
-      <c r="AD226" s="1"/>
-    </row>
-    <row r="227" spans="1:30">
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -13307,9 +13357,8 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
       <c r="AC227" s="1"/>
-      <c r="AD227" s="1"/>
-    </row>
-    <row r="228" spans="1:30">
+    </row>
+    <row r="228" spans="1:29">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -13339,9 +13388,8 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
       <c r="AC228" s="1"/>
-      <c r="AD228" s="1"/>
-    </row>
-    <row r="229" spans="1:30">
+    </row>
+    <row r="229" spans="1:29">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -13371,9 +13419,8 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
       <c r="AC229" s="1"/>
-      <c r="AD229" s="1"/>
-    </row>
-    <row r="230" spans="1:30">
+    </row>
+    <row r="230" spans="1:29">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -13403,9 +13450,8 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
       <c r="AC230" s="1"/>
-      <c r="AD230" s="1"/>
-    </row>
-    <row r="231" spans="1:30">
+    </row>
+    <row r="231" spans="1:29">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -13435,9 +13481,8 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
       <c r="AC231" s="1"/>
-      <c r="AD231" s="1"/>
-    </row>
-    <row r="232" spans="1:30">
+    </row>
+    <row r="232" spans="1:29">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -13467,9 +13512,8 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
       <c r="AC232" s="1"/>
-      <c r="AD232" s="1"/>
-    </row>
-    <row r="233" spans="1:30">
+    </row>
+    <row r="233" spans="1:29">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -13499,9 +13543,8 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
       <c r="AC233" s="1"/>
-      <c r="AD233" s="1"/>
-    </row>
-    <row r="234" spans="1:30">
+    </row>
+    <row r="234" spans="1:29">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -13531,9 +13574,8 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
       <c r="AC234" s="1"/>
-      <c r="AD234" s="1"/>
-    </row>
-    <row r="235" spans="1:30">
+    </row>
+    <row r="235" spans="1:29">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -13563,9 +13605,8 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
       <c r="AC235" s="1"/>
-      <c r="AD235" s="1"/>
-    </row>
-    <row r="236" spans="1:30">
+    </row>
+    <row r="236" spans="1:29">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -13595,9 +13636,8 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
       <c r="AC236" s="1"/>
-      <c r="AD236" s="1"/>
-    </row>
-    <row r="237" spans="1:30">
+    </row>
+    <row r="237" spans="1:29">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -13627,9 +13667,8 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
       <c r="AC237" s="1"/>
-      <c r="AD237" s="1"/>
-    </row>
-    <row r="238" spans="1:30">
+    </row>
+    <row r="238" spans="1:29">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -13659,9 +13698,8 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
       <c r="AC238" s="1"/>
-      <c r="AD238" s="1"/>
-    </row>
-    <row r="239" spans="1:30">
+    </row>
+    <row r="239" spans="1:29">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -13691,9 +13729,8 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
-      <c r="AD239" s="1"/>
-    </row>
-    <row r="240" spans="1:30">
+    </row>
+    <row r="240" spans="1:29">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -13723,9 +13760,8 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
       <c r="AC240" s="1"/>
-      <c r="AD240" s="1"/>
-    </row>
-    <row r="241" spans="1:30">
+    </row>
+    <row r="241" spans="1:29">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -13755,9 +13791,8 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
       <c r="AC241" s="1"/>
-      <c r="AD241" s="1"/>
-    </row>
-    <row r="242" spans="1:30">
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -13787,9 +13822,8 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
       <c r="AC242" s="1"/>
-      <c r="AD242" s="1"/>
-    </row>
-    <row r="243" spans="1:30">
+    </row>
+    <row r="243" spans="1:29">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -13819,9 +13853,8 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
       <c r="AC243" s="1"/>
-      <c r="AD243" s="1"/>
-    </row>
-    <row r="244" spans="1:30">
+    </row>
+    <row r="244" spans="1:29">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -13851,9 +13884,8 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
       <c r="AC244" s="1"/>
-      <c r="AD244" s="1"/>
-    </row>
-    <row r="245" spans="1:30">
+    </row>
+    <row r="245" spans="1:29">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -13883,9 +13915,8 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
       <c r="AC245" s="1"/>
-      <c r="AD245" s="1"/>
-    </row>
-    <row r="246" spans="1:30">
+    </row>
+    <row r="246" spans="1:29">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -13915,9 +13946,8 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
       <c r="AC246" s="1"/>
-      <c r="AD246" s="1"/>
-    </row>
-    <row r="247" spans="1:30">
+    </row>
+    <row r="247" spans="1:29">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -13947,9 +13977,8 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
       <c r="AC247" s="1"/>
-      <c r="AD247" s="1"/>
-    </row>
-    <row r="248" spans="1:30">
+    </row>
+    <row r="248" spans="1:29">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -13979,9 +14008,8 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
       <c r="AC248" s="1"/>
-      <c r="AD248" s="1"/>
-    </row>
-    <row r="249" spans="1:30">
+    </row>
+    <row r="249" spans="1:29">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -14011,9 +14039,8 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
       <c r="AC249" s="1"/>
-      <c r="AD249" s="1"/>
-    </row>
-    <row r="250" spans="1:30">
+    </row>
+    <row r="250" spans="1:29">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -14043,9 +14070,8 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
       <c r="AC250" s="1"/>
-      <c r="AD250" s="1"/>
-    </row>
-    <row r="251" spans="1:30">
+    </row>
+    <row r="251" spans="1:29">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -14075,9 +14101,8 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
       <c r="AC251" s="1"/>
-      <c r="AD251" s="1"/>
-    </row>
-    <row r="252" spans="1:30">
+    </row>
+    <row r="252" spans="1:29">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -14107,9 +14132,8 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
       <c r="AC252" s="1"/>
-      <c r="AD252" s="1"/>
-    </row>
-    <row r="253" spans="1:30">
+    </row>
+    <row r="253" spans="1:29">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -14139,9 +14163,8 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
       <c r="AC253" s="1"/>
-      <c r="AD253" s="1"/>
-    </row>
-    <row r="254" spans="1:30">
+    </row>
+    <row r="254" spans="1:29">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -14171,9 +14194,8 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
       <c r="AC254" s="1"/>
-      <c r="AD254" s="1"/>
-    </row>
-    <row r="255" spans="1:30">
+    </row>
+    <row r="255" spans="1:29">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -14203,9 +14225,8 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
       <c r="AC255" s="1"/>
-      <c r="AD255" s="1"/>
-    </row>
-    <row r="256" spans="1:30">
+    </row>
+    <row r="256" spans="1:29">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -14235,9 +14256,8 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
       <c r="AC256" s="1"/>
-      <c r="AD256" s="1"/>
-    </row>
-    <row r="257" spans="1:30">
+    </row>
+    <row r="257" spans="1:29">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -14267,9 +14287,8 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
       <c r="AC257" s="1"/>
-      <c r="AD257" s="1"/>
-    </row>
-    <row r="258" spans="1:30">
+    </row>
+    <row r="258" spans="1:29">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -14299,9 +14318,8 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
       <c r="AC258" s="1"/>
-      <c r="AD258" s="1"/>
-    </row>
-    <row r="259" spans="1:30">
+    </row>
+    <row r="259" spans="1:29">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -14331,9 +14349,8 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
       <c r="AC259" s="1"/>
-      <c r="AD259" s="1"/>
-    </row>
-    <row r="260" spans="1:30">
+    </row>
+    <row r="260" spans="1:29">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -14363,9 +14380,8 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
       <c r="AC260" s="1"/>
-      <c r="AD260" s="1"/>
-    </row>
-    <row r="261" spans="1:30">
+    </row>
+    <row r="261" spans="1:29">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -14395,9 +14411,8 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
       <c r="AC261" s="1"/>
-      <c r="AD261" s="1"/>
-    </row>
-    <row r="262" spans="1:30">
+    </row>
+    <row r="262" spans="1:29">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -14427,9 +14442,8 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
       <c r="AC262" s="1"/>
-      <c r="AD262" s="1"/>
-    </row>
-    <row r="263" spans="1:30">
+    </row>
+    <row r="263" spans="1:29">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -14459,9 +14473,8 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
       <c r="AC263" s="1"/>
-      <c r="AD263" s="1"/>
-    </row>
-    <row r="264" spans="1:30">
+    </row>
+    <row r="264" spans="1:29">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -14491,9 +14504,8 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
       <c r="AC264" s="1"/>
-      <c r="AD264" s="1"/>
-    </row>
-    <row r="265" spans="1:30">
+    </row>
+    <row r="265" spans="1:29">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -14523,9 +14535,8 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
       <c r="AC265" s="1"/>
-      <c r="AD265" s="1"/>
-    </row>
-    <row r="266" spans="1:30">
+    </row>
+    <row r="266" spans="1:29">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -14555,9 +14566,8 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
       <c r="AC266" s="1"/>
-      <c r="AD266" s="1"/>
-    </row>
-    <row r="267" spans="1:30">
+    </row>
+    <row r="267" spans="1:29">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -14587,9 +14597,8 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
       <c r="AC267" s="1"/>
-      <c r="AD267" s="1"/>
-    </row>
-    <row r="268" spans="1:30">
+    </row>
+    <row r="268" spans="1:29">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -14619,9 +14628,8 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
       <c r="AC268" s="1"/>
-      <c r="AD268" s="1"/>
-    </row>
-    <row r="269" spans="1:30">
+    </row>
+    <row r="269" spans="1:29">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -14651,9 +14659,8 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
       <c r="AC269" s="1"/>
-      <c r="AD269" s="1"/>
-    </row>
-    <row r="270" spans="1:30">
+    </row>
+    <row r="270" spans="1:29">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -14683,9 +14690,8 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
       <c r="AC270" s="1"/>
-      <c r="AD270" s="1"/>
-    </row>
-    <row r="271" spans="1:30">
+    </row>
+    <row r="271" spans="1:29">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -14715,9 +14721,8 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
       <c r="AC271" s="1"/>
-      <c r="AD271" s="1"/>
-    </row>
-    <row r="272" spans="1:30">
+    </row>
+    <row r="272" spans="1:29">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -14747,9 +14752,8 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
       <c r="AC272" s="1"/>
-      <c r="AD272" s="1"/>
-    </row>
-    <row r="273" spans="1:30">
+    </row>
+    <row r="273" spans="1:29">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -14779,9 +14783,8 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
       <c r="AC273" s="1"/>
-      <c r="AD273" s="1"/>
-    </row>
-    <row r="274" spans="1:30">
+    </row>
+    <row r="274" spans="1:29">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -14811,9 +14814,8 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
       <c r="AC274" s="1"/>
-      <c r="AD274" s="1"/>
-    </row>
-    <row r="275" spans="1:30">
+    </row>
+    <row r="275" spans="1:29">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -14843,9 +14845,8 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
       <c r="AC275" s="1"/>
-      <c r="AD275" s="1"/>
-    </row>
-    <row r="276" spans="1:30">
+    </row>
+    <row r="276" spans="1:29">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -14875,9 +14876,8 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
       <c r="AC276" s="1"/>
-      <c r="AD276" s="1"/>
-    </row>
-    <row r="277" spans="1:30">
+    </row>
+    <row r="277" spans="1:29">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -14907,9 +14907,8 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
       <c r="AC277" s="1"/>
-      <c r="AD277" s="1"/>
-    </row>
-    <row r="278" spans="1:30">
+    </row>
+    <row r="278" spans="1:29">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -14939,9 +14938,8 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
       <c r="AC278" s="1"/>
-      <c r="AD278" s="1"/>
-    </row>
-    <row r="279" spans="1:30">
+    </row>
+    <row r="279" spans="1:29">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -14971,9 +14969,8 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
       <c r="AC279" s="1"/>
-      <c r="AD279" s="1"/>
-    </row>
-    <row r="280" spans="1:30">
+    </row>
+    <row r="280" spans="1:29">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -15003,9 +15000,8 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
       <c r="AC280" s="1"/>
-      <c r="AD280" s="1"/>
-    </row>
-    <row r="281" spans="1:30">
+    </row>
+    <row r="281" spans="1:29">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -15035,9 +15031,8 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
       <c r="AC281" s="1"/>
-      <c r="AD281" s="1"/>
-    </row>
-    <row r="282" spans="1:30">
+    </row>
+    <row r="282" spans="1:29">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -15067,9 +15062,8 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
       <c r="AC282" s="1"/>
-      <c r="AD282" s="1"/>
-    </row>
-    <row r="283" spans="1:30">
+    </row>
+    <row r="283" spans="1:29">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -15099,9 +15093,8 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
       <c r="AC283" s="1"/>
-      <c r="AD283" s="1"/>
-    </row>
-    <row r="284" spans="1:30">
+    </row>
+    <row r="284" spans="1:29">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -15131,9 +15124,8 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
       <c r="AC284" s="1"/>
-      <c r="AD284" s="1"/>
-    </row>
-    <row r="285" spans="1:30">
+    </row>
+    <row r="285" spans="1:29">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -15163,9 +15155,8 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
       <c r="AC285" s="1"/>
-      <c r="AD285" s="1"/>
-    </row>
-    <row r="286" spans="1:30">
+    </row>
+    <row r="286" spans="1:29">
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -15190,9 +15181,8 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
       <c r="AC286" s="1"/>
-      <c r="AD286" s="1"/>
-    </row>
-    <row r="287" spans="1:30">
+    </row>
+    <row r="287" spans="1:29">
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -15217,9 +15207,8 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
       <c r="AC287" s="1"/>
-      <c r="AD287" s="1"/>
-    </row>
-    <row r="288" spans="1:30">
+    </row>
+    <row r="288" spans="1:29">
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -15244,9 +15233,8 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
       <c r="AC288" s="1"/>
-      <c r="AD288" s="1"/>
-    </row>
-    <row r="289" spans="6:30">
+    </row>
+    <row r="289" spans="6:29">
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -15271,9 +15259,8 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
       <c r="AC289" s="1"/>
-      <c r="AD289" s="1"/>
-    </row>
-    <row r="290" spans="6:30">
+    </row>
+    <row r="290" spans="6:29">
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -15298,12 +15285,12 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
       <c r="AC290" s="1"/>
-      <c r="AD290" s="1"/>
-    </row>
-    <row r="291" spans="6:30">
+    </row>
+    <row r="291" spans="6:29">
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
+      <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
@@ -15317,12 +15304,12 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
       <c r="AC291" s="1"/>
-      <c r="AD291" s="1"/>
-    </row>
-    <row r="292" spans="6:30">
+    </row>
+    <row r="292" spans="6:29">
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
+      <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
@@ -15336,12 +15323,12 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
       <c r="AC292" s="1"/>
-      <c r="AD292" s="1"/>
-    </row>
-    <row r="293" spans="6:30">
+    </row>
+    <row r="293" spans="6:29">
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
+      <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
@@ -15355,12 +15342,12 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
       <c r="AC293" s="1"/>
-      <c r="AD293" s="1"/>
-    </row>
-    <row r="294" spans="6:30">
+    </row>
+    <row r="294" spans="6:29">
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
+      <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
@@ -15374,12 +15361,12 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
       <c r="AC294" s="1"/>
-      <c r="AD294" s="1"/>
-    </row>
-    <row r="295" spans="6:30">
+    </row>
+    <row r="295" spans="6:29">
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
+      <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
@@ -15393,14 +15380,12 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
       <c r="AC295" s="1"/>
-      <c r="AD295" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:E11">
     <sortCondition descending="1" ref="E2:E11"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17937,4 +17922,112 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12">
+        <v>5100</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5100</v>
+      </c>
+      <c r="D3" s="13">
+        <v>40</v>
+      </c>
+      <c r="E3" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3600</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2800</v>
+      </c>
+      <c r="D4" s="13">
+        <v>31</v>
+      </c>
+      <c r="E4" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2500</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2300</v>
+      </c>
+      <c r="D5" s="13">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13">
+        <v>500</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Estórias</t>
   </si>
@@ -341,6 +341,9 @@
                 <c:pt idx="2">
                   <c:v>2500</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -402,11 +405,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="44224896"/>
-        <c:axId val="45351680"/>
+        <c:axId val="79747328"/>
+        <c:axId val="80089472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44224896"/>
+        <c:axId val="79747328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -433,12 +436,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45351680"/>
+        <c:crossAx val="80089472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45351680"/>
+        <c:axId val="80089472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5100"/>
@@ -448,7 +451,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44224896"/>
+        <c:crossAx val="79747328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -461,7 +464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -551,6 +554,9 @@
                 <c:pt idx="2">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -612,11 +618,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75242496"/>
-        <c:axId val="75485568"/>
+        <c:axId val="80114432"/>
+        <c:axId val="80116352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75242496"/>
+        <c:axId val="80114432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -643,12 +649,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75485568"/>
+        <c:crossAx val="80116352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75485568"/>
+        <c:axId val="80116352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -658,7 +664,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75242496"/>
+        <c:crossAx val="80114432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -671,7 +677,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6164,7 +6170,9 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AC295"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6375,7 +6383,9 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -6417,7 +6427,9 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6503,7 +6515,9 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -6589,7 +6603,9 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -17928,7 +17944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18008,11 +18026,15 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12">
+        <v>500</v>
+      </c>
       <c r="C6" s="13">
         <v>500</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13">
+        <v>8</v>
+      </c>
       <c r="E6" s="13">
         <v>8</v>
       </c>

--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de Requisitos" sheetId="1" r:id="rId1"/>
@@ -405,11 +405,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79747328"/>
-        <c:axId val="80089472"/>
+        <c:axId val="70203648"/>
+        <c:axId val="70230400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79747328"/>
+        <c:axId val="70203648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -436,12 +436,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80089472"/>
+        <c:crossAx val="70230400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80089472"/>
+        <c:axId val="70230400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5100"/>
@@ -451,7 +451,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79747328"/>
+        <c:crossAx val="70203648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -464,7 +464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -618,11 +618,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80114432"/>
-        <c:axId val="80116352"/>
+        <c:axId val="70243072"/>
+        <c:axId val="70244992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80114432"/>
+        <c:axId val="70243072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -649,12 +649,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80116352"/>
+        <c:crossAx val="70244992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80116352"/>
+        <c:axId val="70244992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -664,7 +664,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80114432"/>
+        <c:crossAx val="70243072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -677,7 +677,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2468,7 +2468,7 @@
   <dgm:whole/>
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns="" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+      <dsp:dataModelExt xmlns="" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
@@ -6170,8 +6170,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AC295"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17944,7 +17944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de Requisitos" sheetId="1" r:id="rId1"/>
     <sheet name="Hierarquia dos Requisitos" sheetId="3" r:id="rId2"/>
     <sheet name="Gráficos" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Estórias</t>
   </si>
@@ -81,9 +81,6 @@
     <t>BV restante</t>
   </si>
   <si>
-    <t>BV restante planejado</t>
-  </si>
-  <si>
     <t>SP restante planejado</t>
   </si>
   <si>
@@ -95,14 +92,17 @@
   <si>
     <t>SP restante</t>
   </si>
+  <si>
+    <t>BV  planejado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -209,7 +209,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -225,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -280,7 +280,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Business Value restante</a:t>
+              <a:t>Burndown (Business Value)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -311,6 +311,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -342,7 +345,7 @@
                   <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,7 +360,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BV restante planejado</c:v>
+                  <c:v>BV  planejado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -368,6 +371,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -405,11 +411,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70203648"/>
-        <c:axId val="70230400"/>
+        <c:axId val="81356288"/>
+        <c:axId val="81358208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70203648"/>
+        <c:axId val="81356288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -436,12 +442,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70230400"/>
+        <c:crossAx val="81358208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70230400"/>
+        <c:axId val="81358208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5100"/>
@@ -451,7 +457,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70203648"/>
+        <c:crossAx val="81356288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -464,7 +470,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -524,6 +530,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -555,7 +564,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,6 +590,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -618,11 +630,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70243072"/>
-        <c:axId val="70244992"/>
+        <c:axId val="81395712"/>
+        <c:axId val="81397632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70243072"/>
+        <c:axId val="81395712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -649,12 +661,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70244992"/>
+        <c:crossAx val="81397632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70244992"/>
+        <c:axId val="81397632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -664,7 +676,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70243072"/>
+        <c:crossAx val="81395712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -677,7 +689,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2472,1134 +2484,6 @@
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
-</file>
-
-<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram">
-  <dsp:spTree>
-    <dsp:nvGrpSpPr>
-      <dsp:cNvPr id="0" name=""/>
-      <dsp:cNvGrpSpPr/>
-    </dsp:nvGrpSpPr>
-    <dsp:grpSpPr/>
-    <dsp:sp modelId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7855836" y="756203"/>
-          <a:ext cx="850351" cy="295163"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="147581"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="850351" y="147581"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="850351" y="295163"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7005485" y="756203"/>
-          <a:ext cx="850351" cy="295163"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="850351" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="850351" y="147581"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="147581"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="295163"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{561721DE-941D-4E73-AE63-1A5513B19025}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5239244" y="754762"/>
-          <a:ext cx="91440" cy="317834"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="45748" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="45748" y="170252"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="170252"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="317834"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2299475" y="740404"/>
-          <a:ext cx="91440" cy="337919"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="72467" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="72467" y="190338"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="190338"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="337919"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2371942" y="740404"/>
-          <a:ext cx="1439468" cy="342543"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="194962"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1439468" y="194962"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1439468" y="342543"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="925924" y="740404"/>
-          <a:ext cx="1446018" cy="336183"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="1446018" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1446018" y="188602"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="188602"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="336183"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1669173" y="37635"/>
-          <a:ext cx="1405539" cy="702769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>5(Recepcionista) Cadastro de reservas</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1669173" y="37635"/>
-        <a:ext cx="1405539" cy="702769"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="223154" y="1076588"/>
-          <a:ext cx="1405539" cy="702769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>6(Recepcionista) Cadastro de despertador</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="223154" y="1076588"/>
-        <a:ext cx="1405539" cy="702769"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{59514516-96D5-4A15-ADFB-8636BD4637F9}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3166227" y="1082948"/>
-          <a:ext cx="1290369" cy="702769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>10(Gerente) Relatórios de hospedagem</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3166227" y="1082948"/>
-        <a:ext cx="1290369" cy="702769"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{3B641322-069C-4EB1-BA6C-01FE9202579F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1642425" y="1078324"/>
-          <a:ext cx="1405539" cy="702769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>8(Recepcionista) Checkout e pagamento das reservas</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1642425" y="1078324"/>
-        <a:ext cx="1405539" cy="702769"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4582223" y="30762"/>
-          <a:ext cx="1405539" cy="724000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>2(Recepcionista) Cadastro de clientes</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="4582223" y="30762"/>
-        <a:ext cx="1405539" cy="724000"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4582195" y="1072596"/>
-          <a:ext cx="1405539" cy="702769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>3(Gerente) Cadastro e exclusão de clientes</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="4582195" y="1072596"/>
-        <a:ext cx="1405539" cy="702769"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7153066" y="53433"/>
-          <a:ext cx="1405539" cy="702769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>4(Recepcionista) Cadastro de quarto</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="7153066" y="53433"/>
-        <a:ext cx="1405539" cy="702769"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6302715" y="1051366"/>
-          <a:ext cx="1405539" cy="702769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>1(Recepcionista) Quadro ocupação apartamentos</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6302715" y="1051366"/>
-        <a:ext cx="1405539" cy="702769"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8003417" y="1051366"/>
-          <a:ext cx="1405539" cy="702769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>7(Recepcionista) Controle de limpeza dos quartos</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8003417" y="1051366"/>
-        <a:ext cx="1405539" cy="702769"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8904846" y="53433"/>
-          <a:ext cx="1405539" cy="702769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
-            <a:t>9(Gerente) Configuração de senha</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8904846" y="53433"/>
-        <a:ext cx="1405539" cy="702769"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-  </dsp:spTree>
-</dsp:drawing>
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6170,8 +5054,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AC295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6194,10 +5078,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -6515,9 +5399,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -17944,8 +16826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17964,17 +16846,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>25</v>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12">
+        <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12"/>
       <c r="B3" s="12">
         <v>5100</v>
       </c>
@@ -18027,13 +16911,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="12">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="C6" s="13">
         <v>500</v>
       </c>
       <c r="D6" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13">
         <v>8</v>

--- a/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
+++ b/Documentos/RequisitosAnaliseProjeto/Royalt Hotel - Backlog Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="11295" windowHeight="4815" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Hierarquia dos Requisitos" sheetId="3" r:id="rId2"/>
     <sheet name="Gráficos" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Estórias</t>
   </si>
@@ -101,8 +101,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -209,7 +209,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -225,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -347,6 +347,9 @@
                 <c:pt idx="3">
                   <c:v>700</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -407,15 +410,18 @@
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81356288"/>
-        <c:axId val="81358208"/>
+        <c:axId val="99307520"/>
+        <c:axId val="101428224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81356288"/>
+        <c:axId val="99307520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -442,12 +448,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81358208"/>
+        <c:crossAx val="101428224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81358208"/>
+        <c:axId val="101428224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5100"/>
@@ -457,7 +463,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81356288"/>
+        <c:crossAx val="99307520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -470,7 +476,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -566,6 +572,9 @@
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -626,15 +635,18 @@
                 <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81395712"/>
-        <c:axId val="81397632"/>
+        <c:axId val="101303808"/>
+        <c:axId val="101305728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81395712"/>
+        <c:axId val="101303808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -661,12 +673,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81397632"/>
+        <c:crossAx val="101305728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81397632"/>
+        <c:axId val="101305728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -676,7 +688,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81395712"/>
+        <c:crossAx val="101303808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -689,7 +701,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000091" footer="0.31496062000000091"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2480,10 +2492,1138 @@
   <dgm:whole/>
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns="" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns="" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{D7A28C4B-08F3-417C-9918-B9B56B5039D3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7855836" y="756203"/>
+          <a:ext cx="850351" cy="295163"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="147581"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="850351" y="147581"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="850351" y="295163"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3A7EE58E-683E-4C02-A9CD-84660C7CC0F8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7005485" y="756203"/>
+          <a:ext cx="850351" cy="295163"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="850351" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="850351" y="147581"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="147581"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="295163"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{561721DE-941D-4E73-AE63-1A5513B19025}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5239244" y="754762"/>
+          <a:ext cx="91440" cy="317834"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45748" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45748" y="170252"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="170252"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="317834"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BF217FC9-F0DA-4FE4-B62F-FDED1529460F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2299475" y="740404"/>
+          <a:ext cx="91440" cy="337919"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="72467" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="72467" y="190338"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="190338"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="45720" y="337919"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C2C4D24A-E9E2-424B-93EB-A6D50006AFE8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2371942" y="740404"/>
+          <a:ext cx="1439468" cy="342543"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="194962"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1439468" y="194962"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1439468" y="342543"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4A2142FB-2972-4A64-8B0C-409EF09121F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="925924" y="740404"/>
+          <a:ext cx="1446018" cy="336183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1446018" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1446018" y="188602"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="188602"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="336183"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{25A01E64-0E1F-4115-A47C-FBC8FF75B5EA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1669173" y="37635"/>
+          <a:ext cx="1405539" cy="702769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>5(Recepcionista) Cadastro de reservas</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1669173" y="37635"/>
+        <a:ext cx="1405539" cy="702769"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{744DEAA5-48C9-491B-A1CB-4DC74C87041E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="223154" y="1076588"/>
+          <a:ext cx="1405539" cy="702769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>6(Recepcionista) Cadastro de despertador</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="223154" y="1076588"/>
+        <a:ext cx="1405539" cy="702769"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{59514516-96D5-4A15-ADFB-8636BD4637F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3166227" y="1082948"/>
+          <a:ext cx="1290369" cy="702769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>10(Gerente) Relatórios de hospedagem</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3166227" y="1082948"/>
+        <a:ext cx="1290369" cy="702769"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3B641322-069C-4EB1-BA6C-01FE9202579F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1642425" y="1078324"/>
+          <a:ext cx="1405539" cy="702769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>8(Recepcionista) Checkout e pagamento das reservas</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1642425" y="1078324"/>
+        <a:ext cx="1405539" cy="702769"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1E89CE54-0C6E-4873-A065-58E6EC22B713}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4582223" y="30762"/>
+          <a:ext cx="1405539" cy="724000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>2(Recepcionista) Cadastro de clientes</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4582223" y="30762"/>
+        <a:ext cx="1405539" cy="724000"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CD95EC71-0A87-43ED-B13A-53400D8C62A4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4582195" y="1072596"/>
+          <a:ext cx="1405539" cy="702769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>3(Gerente) Cadastro e exclusão de clientes</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4582195" y="1072596"/>
+        <a:ext cx="1405539" cy="702769"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{91C48588-F4C1-48F4-A662-5F0AF538F0C5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7153066" y="53433"/>
+          <a:ext cx="1405539" cy="702769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>4(Recepcionista) Cadastro de quarto</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7153066" y="53433"/>
+        <a:ext cx="1405539" cy="702769"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{30E8178D-7B38-44E7-887B-24FAEF535DA8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6302715" y="1051366"/>
+          <a:ext cx="1405539" cy="702769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>1(Recepcionista) Quadro ocupação apartamentos</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6302715" y="1051366"/>
+        <a:ext cx="1405539" cy="702769"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4B53D9F5-1B77-441E-AAFB-AEF480B316A7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8003417" y="1051366"/>
+          <a:ext cx="1405539" cy="702769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>7(Recepcionista) Controle de limpeza dos quartos</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8003417" y="1051366"/>
+        <a:ext cx="1405539" cy="702769"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D95422D7-13E1-41BE-AAE3-124F78F6B690}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8904846" y="53433"/>
+          <a:ext cx="1405539" cy="702769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" kern="1200"/>
+            <a:t>9(Gerente) Configuração de senha</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8904846" y="53433"/>
+        <a:ext cx="1405539" cy="702769"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5054,9 +6194,7 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AC295"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5400,7 +6538,9 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -5530,7 +6670,9 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -16826,9 +17968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16927,10 +18067,18 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
